--- a/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_1_site.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_1_site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD2DAE3-AAF4-4BCD-9F5B-C237672E36B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED49EF90-DDBA-464B-AA7F-C78936ABD380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="498" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6952" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6952" uniqueCount="906">
   <si>
     <t>type</t>
   </si>
@@ -2928,6 +2928,9 @@
   </si>
   <si>
     <t>sn_sch_sth_impact_202403_1_site</t>
+  </si>
+  <si>
+    <t>EE ESPACE ELEMENTAIRE D EXCELLENCE</t>
   </si>
 </sst>
 </file>
@@ -3837,7 +3840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -4685,9 +4688,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1263"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomLeft" activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11963,7 +11966,7 @@
         <v>76</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>264</v>
+        <v>905</v>
       </c>
       <c r="C541" s="4" t="s">
         <v>264</v>
@@ -16920,7 +16923,7 @@
         <v>196</v>
       </c>
       <c r="F891" t="s">
-        <v>264</v>
+        <v>905</v>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.25">
@@ -22186,8 +22189,8 @@
   <dimension ref="A1:N469"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H2:H10"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25021,7 +25024,7 @@
         <v>262</v>
       </c>
       <c r="D97" s="53" t="s">
-        <v>264</v>
+        <v>905</v>
       </c>
       <c r="E97">
         <v>196</v>
@@ -28487,7 +28490,7 @@
         <v>262</v>
       </c>
       <c r="N216" s="53" t="s">
-        <v>264</v>
+        <v>905</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">

--- a/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_1_site.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_1_site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9737318B-2582-45E8-A323-E52BB4752F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5D012F-D4AC-4AE6-B913-E81D7FE3988F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="498" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6966" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6975" uniqueCount="928">
   <si>
     <t>type</t>
   </si>
@@ -2723,27 +2723,9 @@
     <t>9.b. Observateur: Les toilettes sont-elles salubres ?</t>
   </si>
   <si>
-    <t>9.d. Observateur : y a-t-il du savon</t>
-  </si>
-  <si>
     <t>select_one desinfectant</t>
   </si>
   <si>
-    <t>9.e. Observateur : Quel(s) sont les désinfectant(s) disponible(s)</t>
-  </si>
-  <si>
-    <t>9.f. Observateur: Les mouches peuvent-elles accéder aux fécès ?</t>
-  </si>
-  <si>
-    <t>9.g. Y a-t-il un dispositif de lavage des mains ?</t>
-  </si>
-  <si>
-    <t>9.g.a. Y a-t-il du savon ?</t>
-  </si>
-  <si>
-    <t>9.g.Quel(s) sont les désinfectant(s) disponible(s) ?</t>
-  </si>
-  <si>
     <t>select_multiple place_defecate</t>
   </si>
   <si>
@@ -2783,9 +2765,6 @@
     <t>w_sanitiser_2</t>
   </si>
   <si>
-    <t>11. A quelle distance se trouve le point d’eau (marigot, rivière, mare temporaire, fleuve)</t>
-  </si>
-  <si>
     <t>select_one toilet_type</t>
   </si>
   <si>
@@ -2858,21 +2837,6 @@
     <t>6. Prénoms et Noms du directeur / chef du village</t>
   </si>
   <si>
-    <t>12. Ce point d’eau est-il fréquenté par les enfants</t>
-  </si>
-  <si>
-    <t>13. Collectez les coordonnées GPS</t>
-  </si>
-  <si>
-    <t>14. Informations supplémentaires sur l'école</t>
-  </si>
-  <si>
-    <t>sn_sch_sth_impact_202403_1_site_v3</t>
-  </si>
-  <si>
-    <t>(2024 Mar) - 1. SCH/STH – Site V3</t>
-  </si>
-  <si>
     <t>Ecole</t>
   </si>
   <si>
@@ -2885,9 +2849,6 @@
     <t>w_survey_location_type</t>
   </si>
   <si>
-    <t>Le site est-il une école ou un mileiu communautaire?</t>
-  </si>
-  <si>
     <t>8.a. Quelle est la nature de la source</t>
   </si>
   <si>
@@ -2960,9 +2921,6 @@
     <t>w_defecate_in_village</t>
   </si>
   <si>
-    <t>9.c. Observateur : Y-a-t un dispositif de lavage des mains ?</t>
-  </si>
-  <si>
     <t>select_one survey_location</t>
   </si>
   <si>
@@ -2972,9 +2930,6 @@
     <t>(${w_source_exist_school} = 'Non' or ${w_source_exist_school} = 'Non') and ${w_source_type2} = 'Autre' and (${w_consent_village} = 'Oui' or ${w_consent_school} = 'Oui')</t>
   </si>
   <si>
-    <t>${w_toilet_school} = 'Non'  and (${w_consent_village} = 'Oui' or ${w_consent_school} = 'Oui') and ${w_survey_location_type} = 'Ecole'</t>
-  </si>
-  <si>
     <t>(${w_consent_village} = 'Non' or ${w_consent_school} = 'Non')</t>
   </si>
   <si>
@@ -2982,6 +2937,66 @@
   </si>
   <si>
     <t>(${w_source_exist_school} = 'Oui' or ${w_source_exist_village} = 'Oui') and (${w_consent_village} = 'Oui' or ${w_consent_school} = 'Oui')</t>
+  </si>
+  <si>
+    <t>(2024 Mar) - 1. SCH/STH – Site V4</t>
+  </si>
+  <si>
+    <t>sn_sch_sth_impact_202403_1_site_v4</t>
+  </si>
+  <si>
+    <t>6.1. Le site est-il une école ou un mileiu communautaire?</t>
+  </si>
+  <si>
+    <t>12. A quelle distance se trouve le point d’eau (marigot, rivière, mare temporaire, fleuve)</t>
+  </si>
+  <si>
+    <t>14. Collectez les coordonnées GPS</t>
+  </si>
+  <si>
+    <t>15. Informations supplémentaires sur l'école</t>
+  </si>
+  <si>
+    <t>13. Ce point d’eau  (marigot, rivière, mare temporaire, fleuve) est-il fréquenté par les enfants</t>
+  </si>
+  <si>
+    <t>11. Existe-t-il un point d’eau (marigot, rivière, mare temporaire, fleuve) dans le village ou dans les environs du village ?</t>
+  </si>
+  <si>
+    <t>w_water_point</t>
+  </si>
+  <si>
+    <t>9.d. Observateur : Y-a-t un dispositif de lavage des mains ?</t>
+  </si>
+  <si>
+    <t>9.e. Observateur : y a-t-il du savon</t>
+  </si>
+  <si>
+    <t>9.f. Observateur : Quel(s) sont les désinfectant(s) disponible(s)</t>
+  </si>
+  <si>
+    <t>9.g. Observateur: Les mouches peuvent-elles accéder aux fécès ?</t>
+  </si>
+  <si>
+    <t>9.h. Y a-t-il un dispositif de lavage des mains ?</t>
+  </si>
+  <si>
+    <t>9.h.a. Y a-t-il du savon ?</t>
+  </si>
+  <si>
+    <t>9.h.b..Quel(s) sont les désinfectant(s) disponible(s) ?</t>
+  </si>
+  <si>
+    <t>9.c. Est-ce que les enfants utilisent les toilettes de l'école?</t>
+  </si>
+  <si>
+    <t>w_toilet_use</t>
+  </si>
+  <si>
+    <t>(${w_consent_village} = 'Oui' or ${w_consent_school} = 'Oui') and (${w_consent_village} = 'Oui' or ${w_consent_school} = 'Oui') and ${w_water_point} = 'Oui'</t>
+  </si>
+  <si>
+    <t>(${w_toilet_school} = 'Non' or ${w_toilet_use} = 'Non')  and (${w_consent_village} = 'Oui' or ${w_consent_school} = 'Oui') and ${w_survey_location_type} = 'Ecole'</t>
   </si>
 </sst>
 </file>
@@ -3892,13 +3907,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3992,10 +4007,10 @@
         <v>107</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="D3" s="67"/>
       <c r="E3" s="68"/>
@@ -4064,7 +4079,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="18"/>
@@ -4089,7 +4104,7 @@
         <v>74</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="18"/>
@@ -4114,7 +4129,7 @@
         <v>81</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
@@ -4129,15 +4144,15 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>890</v>
+        <v>910</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="18"/>
@@ -4155,7 +4170,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>140</v>
@@ -4165,7 +4180,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="19"/>
       <c r="H10" s="18" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18" t="s">
@@ -4180,17 +4195,17 @@
         <v>26</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19"/>
       <c r="H11" s="18" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18" t="s">
@@ -4205,17 +4220,17 @@
         <v>24</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="19"/>
       <c r="H12" s="18" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18" t="s">
@@ -4230,17 +4245,17 @@
         <v>24</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="19"/>
       <c r="H13" s="18" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18" t="s">
@@ -4258,14 +4273,14 @@
         <v>25</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="19"/>
       <c r="H14" s="18" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18" t="s">
@@ -4275,7 +4290,7 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="1:13" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>88</v>
       </c>
@@ -4290,7 +4305,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="19"/>
       <c r="H15" s="21" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18" t="s">
@@ -4315,7 +4330,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="19"/>
       <c r="H16" s="21" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18" t="s">
@@ -4325,7 +4340,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="1:13" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>27</v>
       </c>
@@ -4340,7 +4355,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="19"/>
       <c r="H17" s="21" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18" t="s">
@@ -4355,7 +4370,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>833</v>
@@ -4365,7 +4380,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="19"/>
       <c r="H18" s="21" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -4373,12 +4388,12 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>834</v>
@@ -4388,7 +4403,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="19"/>
       <c r="H19" s="21" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -4396,12 +4411,12 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>835</v>
@@ -4411,7 +4426,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="19"/>
       <c r="H20" s="21" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -4419,22 +4434,22 @@
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
     </row>
-    <row r="21" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>849</v>
+        <v>925</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="19"/>
       <c r="H21" s="21" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -4447,17 +4462,17 @@
         <v>24</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>836</v>
+        <v>917</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="19"/>
       <c r="H22" s="21" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -4465,22 +4480,22 @@
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>837</v>
+    <row r="23" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>838</v>
+        <v>918</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="19"/>
       <c r="H23" s="21" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -4489,44 +4504,44 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>24</v>
+      <c r="A24" s="21" t="s">
+        <v>836</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>852</v>
-      </c>
-      <c r="C24" s="72" t="s">
-        <v>839</v>
-      </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="73"/>
+        <v>845</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>919</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="21" t="s">
-        <v>906</v>
-      </c>
-      <c r="I24" s="25"/>
+        <v>895</v>
+      </c>
+      <c r="I24" s="18"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-    </row>
-    <row r="25" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+    </row>
+    <row r="25" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>840</v>
+        <v>920</v>
       </c>
       <c r="D25" s="73"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="73"/>
       <c r="H25" s="21" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
       <c r="I25" s="25"/>
       <c r="J25" s="18"/>
@@ -4539,17 +4554,17 @@
         <v>24</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="C26" s="72" t="s">
-        <v>841</v>
+        <v>921</v>
       </c>
       <c r="D26" s="73"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="73"/>
       <c r="H26" s="21" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="18"/>
@@ -4558,21 +4573,21 @@
       <c r="M26" s="25"/>
     </row>
     <row r="27" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>837</v>
+      <c r="A27" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="C27" s="72" t="s">
-        <v>842</v>
+        <v>922</v>
       </c>
       <c r="D27" s="73"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="73"/>
       <c r="H27" s="21" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="18"/>
@@ -4580,95 +4595,93 @@
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
     </row>
-    <row r="28" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>912</v>
+        <v>849</v>
       </c>
       <c r="C28" s="72" t="s">
-        <v>844</v>
+        <v>923</v>
       </c>
       <c r="D28" s="73"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="73"/>
       <c r="H28" s="21" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="I28" s="25"/>
-      <c r="J28" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="J28" s="18"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
     </row>
-    <row r="29" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>837</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>899</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>838</v>
+      </c>
+      <c r="D29" s="73"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="J29" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+    </row>
+    <row r="30" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="64" t="s">
-        <v>914</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>913</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="21" t="s">
-        <v>902</v>
-      </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-    </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="B30" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="72" t="s">
-        <v>856</v>
-      </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="73"/>
+        <v>901</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>900</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="21" t="s">
-        <v>898</v>
-      </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-    </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="1:13" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>136</v>
+        <v>916</v>
       </c>
       <c r="C31" s="72" t="s">
-        <v>881</v>
+        <v>915</v>
       </c>
       <c r="D31" s="73"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="73"/>
       <c r="H31" s="21" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="I31" s="25"/>
       <c r="J31" s="18" t="s">
@@ -4678,93 +4691,99 @@
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
     </row>
-    <row r="32" spans="1:13" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>21</v>
+    <row r="32" spans="1:13" s="4" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>882</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>911</v>
+      </c>
+      <c r="D32" s="73"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="73"/>
       <c r="H32" s="21" t="s">
-        <v>898</v>
-      </c>
-      <c r="I32" s="18"/>
+        <v>926</v>
+      </c>
+      <c r="I32" s="25"/>
       <c r="J32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-    </row>
-    <row r="33" spans="1:13" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="68" t="s">
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+    </row>
+    <row r="33" spans="1:13" s="4" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>914</v>
+      </c>
+      <c r="D33" s="73"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="21" t="s">
+        <v>926</v>
+      </c>
+      <c r="I33" s="25"/>
+      <c r="J33" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+    </row>
+    <row r="34" spans="1:13" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>912</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="1:13" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B35" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C35" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="68" t="s">
-        <v>920</v>
-      </c>
-      <c r="I33" s="75"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-    </row>
-    <row r="34" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="72" t="s">
-        <v>883</v>
-      </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-    </row>
-    <row r="35" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="76"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="75"/>
       <c r="F35" s="75"/>
       <c r="G35" s="76"/>
-      <c r="H35" s="77" t="s">
-        <v>897</v>
+      <c r="H35" s="68" t="s">
+        <v>905</v>
       </c>
       <c r="I35" s="75"/>
       <c r="J35" s="68"/>
@@ -4773,40 +4792,84 @@
       <c r="M35" s="75"/>
     </row>
     <row r="36" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>913</v>
+      </c>
+      <c r="D36" s="73"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+    </row>
+    <row r="37" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="76"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="77" t="s">
+        <v>884</v>
+      </c>
+      <c r="I37" s="75"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+    </row>
+    <row r="38" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="9"/>
-      <c r="H36"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-    </row>
-    <row r="37" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="9"/>
+      <c r="H38"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+    </row>
+    <row r="39" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="9"/>
-      <c r="H37"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="9"/>
+      <c r="H39"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4818,7 +4881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
     </sheetView>
@@ -5547,25 +5610,25 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="D67" s="20"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="D68" s="20"/>
     </row>
@@ -5577,25 +5640,25 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="62" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>144</v>
       </c>
       <c r="C70" s="61" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D70" s="79"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="62" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>143</v>
       </c>
       <c r="C71" s="61" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="D71" s="79"/>
     </row>
@@ -5607,37 +5670,37 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="D73" s="17"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="D74" s="17"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="D75" s="17"/>
     </row>
@@ -5649,34 +5712,34 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="D78" s="18"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>40</v>
@@ -5685,13 +5748,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="D80" s="18"/>
     </row>
@@ -5703,25 +5766,25 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="D82" s="18"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="D83" s="18"/>
     </row>
@@ -6480,10 +6543,10 @@
         <v>35</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="D140" s="20" t="s">
         <v>178</v>
@@ -7418,10 +7481,10 @@
         <v>35</v>
       </c>
       <c r="B207" s="25" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="C207" s="25" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="D207" s="20" t="s">
         <v>343</v>
@@ -11880,7 +11943,7 @@
         <v>201</v>
       </c>
       <c r="E526" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
@@ -11894,7 +11957,7 @@
         <v>200</v>
       </c>
       <c r="E527" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
@@ -12104,7 +12167,7 @@
         <v>763</v>
       </c>
       <c r="E542" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
@@ -12118,7 +12181,7 @@
         <v>377</v>
       </c>
       <c r="E543" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -12126,7 +12189,7 @@
         <v>75</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="C544" s="4" t="s">
         <v>250</v>
@@ -17083,7 +17146,7 @@
         <v>196</v>
       </c>
       <c r="F894" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.25">
@@ -22306,7 +22369,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22329,10 +22392,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>885</v>
+        <v>908</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>884</v>
+        <v>909</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -23743,7 +23806,7 @@
         <v>178</v>
       </c>
       <c r="K47" s="45" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="M47" s="54" t="s">
         <v>300</v>
@@ -24224,7 +24287,7 @@
         <v>178</v>
       </c>
       <c r="C64" s="45" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="D64" s="46" t="s">
         <v>200</v>
@@ -24253,7 +24316,7 @@
         <v>178</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="D65" s="46" t="s">
         <v>201</v>
@@ -25184,7 +25247,7 @@
         <v>248</v>
       </c>
       <c r="D97" s="53" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="E97">
         <v>196</v>
@@ -25686,7 +25749,7 @@
         <v>343</v>
       </c>
       <c r="K114" s="53" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="M114" s="53" t="s">
         <v>326</v>
@@ -28125,7 +28188,7 @@
         <v>326</v>
       </c>
       <c r="M198" s="46" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="N198" s="46" t="s">
         <v>201</v>
@@ -28154,7 +28217,7 @@
         <v>327</v>
       </c>
       <c r="M199" s="46" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="N199" s="46" t="s">
         <v>200</v>
@@ -28589,7 +28652,7 @@
         <v>341</v>
       </c>
       <c r="M214" s="53" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="N214" s="53" t="s">
         <v>763</v>
@@ -28618,7 +28681,7 @@
         <v>342</v>
       </c>
       <c r="M215" s="53" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="N215" s="53" t="s">
         <v>377</v>
@@ -28650,7 +28713,7 @@
         <v>248</v>
       </c>
       <c r="N216" s="53" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
@@ -29764,7 +29827,7 @@
         <v>343</v>
       </c>
       <c r="C260" s="53" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="D260" s="53" t="s">
         <v>377</v>
@@ -29787,7 +29850,7 @@
         <v>343</v>
       </c>
       <c r="C261" s="53" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="D261" s="53" t="s">
         <v>763</v>
